--- a/docs/other/IP-Planning.xlsx
+++ b/docs/other/IP-Planning.xlsx
@@ -36,15 +36,6 @@
     <t>Hostname</t>
   </si>
   <si>
-    <t>CEPH1</t>
-  </si>
-  <si>
-    <t>CEPH2</t>
-  </si>
-  <si>
-    <t>CEPH3</t>
-  </si>
-  <si>
     <t>Gateway</t>
   </si>
   <si>
@@ -154,6 +145,15 @@
   </si>
   <si>
     <t>10.10.10.1</t>
+  </si>
+  <si>
+    <t>MIMIC1</t>
+  </si>
+  <si>
+    <t>MIMIC2</t>
+  </si>
+  <si>
+    <t>MIMIC3</t>
   </si>
 </sst>
 </file>
@@ -327,37 +327,37 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -632,7 +632,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -646,7 +646,7 @@
   <dimension ref="B2:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -667,421 +667,409 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="21.95" x14ac:dyDescent="0.35">
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
     </row>
     <row r="3" spans="2:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
+      <c r="B3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
     </row>
     <row r="4" spans="2:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
+      <c r="B4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
     </row>
     <row r="5" spans="2:16" ht="49.5" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="O5" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:16" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G6" s="6">
         <v>24</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="19">
+        <v>2</v>
+      </c>
+      <c r="L6" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="13">
-        <v>2</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="15"/>
+      <c r="M6" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="23"/>
     </row>
     <row r="7" spans="2:16" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="17"/>
       <c r="C7" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G7" s="9">
         <v>24</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
     </row>
     <row r="8" spans="2:16" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="17"/>
       <c r="C8" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G8" s="11">
         <v>24</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
     </row>
     <row r="9" spans="2:16" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="17" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G9" s="6">
         <v>24</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J9" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="19">
+        <v>2</v>
+      </c>
+      <c r="L9" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="13">
-        <v>2</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9" s="15"/>
+      <c r="M9" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="23"/>
     </row>
     <row r="10" spans="2:16" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="17"/>
       <c r="C10" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G10" s="9">
         <v>24</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
     </row>
     <row r="11" spans="2:16" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="17"/>
       <c r="C11" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G11" s="11">
         <v>24</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
     </row>
     <row r="12" spans="2:16" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="17" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G12" s="6">
         <v>24</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J12" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="19">
+        <v>2</v>
+      </c>
+      <c r="L12" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K12" s="13">
-        <v>2</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="P12" s="15"/>
+      <c r="M12" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="23"/>
     </row>
     <row r="13" spans="2:16" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="17"/>
       <c r="C13" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G13" s="9">
         <v>24</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
     </row>
     <row r="14" spans="2:16" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="17"/>
       <c r="C14" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G14" s="11">
         <v>24</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
     </row>
     <row r="15" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="P6:P8"/>
     <mergeCell ref="O9:O11"/>
     <mergeCell ref="P9:P11"/>
     <mergeCell ref="B12:B14"/>
@@ -1098,6 +1086,18 @@
     <mergeCell ref="L9:L11"/>
     <mergeCell ref="M9:M11"/>
     <mergeCell ref="N9:N11"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="P6:P8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
